--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi.sharepoint.com/sites/AEPCoursestudentproject2024-VTTProject2/Shared Documents/VTT Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="11_73D32B72FC33B3B87482EAA6969955EA1A9E5F3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A1E5D7-F0DD-4FC5-B681-68CBD01CEA6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87AB419-E433-4B1C-97F1-FFE0C0DDF2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Script (Main)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -460,9 +460,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,6 +471,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +815,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
@@ -840,16 +840,16 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -857,10 +857,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
@@ -985,16 +985,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1002,10 +1002,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1045,28 +1045,28 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1089,6 +1089,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1097,11 +1102,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1112,10 +1112,10 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -1143,551 +1143,551 @@
     <col min="29" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:30" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>70</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>90</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>30</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>50</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>78</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>270</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>450</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>800</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>1500</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>60000</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>100000</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>0.13</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>1</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>30</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>10</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>40</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>46</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>70</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>70</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>90</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>1</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="5">
         <v>30</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="5">
         <v>50</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="5">
         <v>6</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="5">
         <v>80</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="5">
         <v>580</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>40</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>80</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>35</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>57</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>69</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>200</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>200</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>3333</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>3333</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>5000</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>40000</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>0.4</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>30</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>20</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>10</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>20</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>55</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>60</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>50</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>60</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>1</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <v>30</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <v>30</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <v>2</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <v>50</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>50</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>80</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>80</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>50</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>83</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>400</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>870</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>1400</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>2100</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>50000</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>90000</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>0.25</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>0.16666600000000001</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>5</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>5</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>10</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>55</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>60</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <v>50</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>80</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <v>30</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <v>30</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="5">
         <v>15</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="5">
         <v>2</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="5">
         <v>50</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="5">
         <v>760</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>500</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>900</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>38</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>48</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>250</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>2000</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>917</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>4000</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>20000</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>50000</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>1</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>10</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>600</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>3</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>3</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>40</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>81</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>700</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>850</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>1</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <v>1</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="5">
         <v>600</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <v>10</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <v>110</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="5">
         <v>1000</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="5">
         <v>250</v>
       </c>
     </row>
@@ -1697,16 +1697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -1884,6 +1874,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1894,22 +1894,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1927,6 +1911,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
   <ds:schemaRefs>

--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87AB419-E433-4B1C-97F1-FFE0C0DDF2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681B2AD-2612-40CA-82F8-DBB1135F84B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>Technology</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>Efficiency (LHV)</t>
+  </si>
+  <si>
+    <t>KWh/kg H2</t>
+  </si>
+  <si>
+    <t>System heat needed</t>
   </si>
 </sst>
 </file>
@@ -811,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,11 +1095,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1102,6 +1103,11 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1109,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,9 +1147,10 @@
     <col min="26" max="26" width="9.21875" customWidth="1"/>
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1234,8 +1241,11 @@
       <c r="AD1" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1326,8 +1336,11 @@
       <c r="AD2" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1418,8 +1431,11 @@
       <c r="AD3" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE3" s="5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1522,11 @@
       </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE4" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1598,8 +1617,11 @@
       <c r="AD5" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE5" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -1689,6 +1711,9 @@
       </c>
       <c r="AD6" s="5">
         <v>250</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1697,6 +1722,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -1874,39 +1918,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1928,9 +1943,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681B2AD-2612-40CA-82F8-DBB1135F84B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692FAAE-0F89-4A2A-9D1F-937E496090DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>Technology</t>
   </si>
@@ -364,6 +364,54 @@
   </si>
   <si>
     <t>System heat needed</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Rentability</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>Ecological impact</t>
+  </si>
+  <si>
+    <t>Startup time</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Availability (h/year)</t>
+  </si>
+  <si>
+    <t>Plant Area/Footprint</t>
+  </si>
+  <si>
+    <t>Technology readiness</t>
+  </si>
+  <si>
+    <t>Connection flexibility</t>
+  </si>
+  <si>
+    <t>Geopolitical barriers</t>
+  </si>
+  <si>
+    <t>Economic lifetime</t>
+  </si>
+  <si>
+    <t>Production efficiency</t>
+  </si>
+  <si>
+    <t>Waste and decomissioning</t>
+  </si>
+  <si>
+    <t>/10</t>
   </si>
 </sst>
 </file>
@@ -1095,6 +1143,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1103,11 +1156,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,9 +1196,19 @@
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.77734375" customWidth="1"/>
+    <col min="36" max="36" width="13.88671875" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" customWidth="1"/>
+    <col min="42" max="42" width="15.5546875" customWidth="1"/>
+    <col min="43" max="43" width="17.5546875" customWidth="1"/>
+    <col min="44" max="44" width="20.88671875" customWidth="1"/>
+    <col min="45" max="45" width="14.33203125" customWidth="1"/>
+    <col min="46" max="46" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1244,8 +1302,53 @@
       <c r="AE1" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1339,8 +1442,53 @@
       <c r="AE2" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1583,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1674,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1621,7 +1769,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -1722,25 +1870,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -1918,10 +2047,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1943,19 +2101,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692FAAE-0F89-4A2A-9D1F-937E496090DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26616E5-33B0-4745-B324-6C3417301CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -498,11 +498,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,6 +539,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,11 +1157,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1156,6 +1165,11 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1165,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,6 +1596,51 @@
       <c r="AE3" s="5">
         <v>7.3</v>
       </c>
+      <c r="AF3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1673,6 +1732,51 @@
       <c r="AE4" s="5">
         <v>7.8</v>
       </c>
+      <c r="AF4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1768,6 +1872,51 @@
       <c r="AE5" s="5">
         <v>7.8</v>
       </c>
+      <c r="AF5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1862,6 +2011,51 @@
       </c>
       <c r="AE6" s="5">
         <v>7.4</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2048,6 +2242,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
@@ -2055,15 +2258,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2085,6 +2279,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2098,12 +2300,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26616E5-33B0-4745-B324-6C3417301CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1060C48-F321-4AD6-82CC-802744118E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1728" yWindow="2976" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>Technology</t>
   </si>
@@ -412,13 +412,16 @@
   </si>
   <si>
     <t>/10</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +442,15 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +469,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -509,11 +531,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,10 +572,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,16 +952,16 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -925,10 +969,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1053,16 +1097,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1070,10 +1114,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1113,28 +1157,28 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1157,6 +1201,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1165,11 +1214,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1177,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,19 +1254,20 @@
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.77734375" customWidth="1"/>
-    <col min="36" max="36" width="13.88671875" customWidth="1"/>
-    <col min="39" max="39" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.5546875" customWidth="1"/>
-    <col min="43" max="43" width="17.5546875" customWidth="1"/>
-    <col min="44" max="44" width="20.88671875" customWidth="1"/>
-    <col min="45" max="45" width="14.33203125" customWidth="1"/>
-    <col min="46" max="46" width="14.5546875" customWidth="1"/>
+    <col min="32" max="32" width="11" customWidth="1"/>
+    <col min="35" max="35" width="11.77734375" customWidth="1"/>
+    <col min="37" max="37" width="13.88671875" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.6640625" customWidth="1"/>
+    <col min="43" max="43" width="15.5546875" customWidth="1"/>
+    <col min="44" max="44" width="17.5546875" customWidth="1"/>
+    <col min="45" max="45" width="20.88671875" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" customWidth="1"/>
+    <col min="47" max="47" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1316,53 +1361,56 @@
       <c r="AE1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1456,8 +1504,8 @@
       <c r="AE2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>124</v>
+      <c r="AF2" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>124</v>
@@ -1480,11 +1528,11 @@
       <c r="AM2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO2" s="6">
         <v>10</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>124</v>
@@ -1501,8 +1549,11 @@
       <c r="AT2" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="AU2" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1596,53 +1647,56 @@
       <c r="AE3" s="5">
         <v>7.3</v>
       </c>
-      <c r="AF3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="10">
+      <c r="AF3" s="13">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1732,53 +1786,56 @@
       <c r="AE4" s="5">
         <v>7.8</v>
       </c>
-      <c r="AF4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="10">
+      <c r="AF4" s="13">
+        <v>60</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1872,53 +1929,56 @@
       <c r="AE5" s="5">
         <v>7.8</v>
       </c>
-      <c r="AF5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="10">
+      <c r="AF5" s="13">
+        <v>60</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2012,49 +2072,52 @@
       <c r="AE6" s="5">
         <v>7.4</v>
       </c>
-      <c r="AF6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="10">
+      <c r="AF6" s="13">
+        <v>81</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2242,15 +2305,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
@@ -2258,6 +2312,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2279,14 +2342,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2300,4 +2355,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1060C48-F321-4AD6-82CC-802744118E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D36D1-B679-43FA-94B7-5419A5C55AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1728" yWindow="2976" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>Technology</t>
   </si>
@@ -412,16 +412,13 @@
   </si>
   <si>
     <t>/10</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,15 +439,8 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,20 +459,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -531,24 +509,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,15 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,20 +1210,19 @@
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="35" max="35" width="11.77734375" customWidth="1"/>
-    <col min="37" max="37" width="13.88671875" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.6640625" customWidth="1"/>
-    <col min="43" max="43" width="15.5546875" customWidth="1"/>
-    <col min="44" max="44" width="17.5546875" customWidth="1"/>
-    <col min="45" max="45" width="20.88671875" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" customWidth="1"/>
-    <col min="47" max="47" width="14.5546875" customWidth="1"/>
+    <col min="34" max="34" width="11.77734375" customWidth="1"/>
+    <col min="36" max="36" width="13.88671875" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" customWidth="1"/>
+    <col min="42" max="42" width="15.5546875" customWidth="1"/>
+    <col min="43" max="43" width="17.5546875" customWidth="1"/>
+    <col min="44" max="44" width="20.88671875" customWidth="1"/>
+    <col min="45" max="45" width="14.33203125" customWidth="1"/>
+    <col min="46" max="46" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1361,56 +1316,53 @@
       <c r="AE1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="11" t="s">
-        <v>125</v>
+      <c r="AF1" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO1" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AQ1" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AT1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU1" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1504,8 +1456,8 @@
       <c r="AE2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AF2" s="12" t="s">
-        <v>88</v>
+      <c r="AF2" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>124</v>
@@ -1528,11 +1480,11 @@
       <c r="AM2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="6">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>10</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>124</v>
@@ -1549,11 +1501,8 @@
       <c r="AT2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AU2" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1647,8 +1596,8 @@
       <c r="AE3" s="5">
         <v>7.3</v>
       </c>
-      <c r="AF3" s="13">
-        <v>70</v>
+      <c r="AF3" s="9">
+        <v>0</v>
       </c>
       <c r="AG3" s="9">
         <v>0</v>
@@ -1692,11 +1641,8 @@
       <c r="AT3" s="9">
         <v>0</v>
       </c>
-      <c r="AU3" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1786,8 +1732,8 @@
       <c r="AE4" s="5">
         <v>7.8</v>
       </c>
-      <c r="AF4" s="13">
-        <v>60</v>
+      <c r="AF4" s="9">
+        <v>0</v>
       </c>
       <c r="AG4" s="9">
         <v>0</v>
@@ -1831,11 +1777,8 @@
       <c r="AT4" s="9">
         <v>0</v>
       </c>
-      <c r="AU4" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1929,8 +1872,8 @@
       <c r="AE5" s="5">
         <v>7.8</v>
       </c>
-      <c r="AF5" s="13">
-        <v>60</v>
+      <c r="AF5" s="9">
+        <v>0</v>
       </c>
       <c r="AG5" s="9">
         <v>0</v>
@@ -1974,11 +1917,8 @@
       <c r="AT5" s="9">
         <v>0</v>
       </c>
-      <c r="AU5" s="9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2072,8 +2012,8 @@
       <c r="AE6" s="5">
         <v>7.4</v>
       </c>
-      <c r="AF6" s="13">
-        <v>81</v>
+      <c r="AF6" s="9">
+        <v>0</v>
       </c>
       <c r="AG6" s="9">
         <v>0</v>
@@ -2115,9 +2055,6 @@
         <v>0</v>
       </c>
       <c r="AT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2127,6 +2064,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -2304,7 +2250,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
@@ -2314,16 +2260,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2341,7 +2286,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2355,12 +2300,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D36D1-B679-43FA-94B7-5419A5C55AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47003B0E-B81A-40B3-AC7B-F33CB40F0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1728" yWindow="2976" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3552" windowWidth="17112" windowHeight="8796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>Technology</t>
   </si>
@@ -51,6 +51,57 @@
     <t>AEM</t>
   </si>
   <si>
+    <t>SOEC</t>
+  </si>
+  <si>
+    <t>Eletrolyser Technology</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Rentability</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>Ecological impact</t>
+  </si>
+  <si>
+    <t>Startup time</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Availability (h/year)</t>
+  </si>
+  <si>
+    <t>Plant Area/Footprint</t>
+  </si>
+  <si>
+    <t>Technology readiness</t>
+  </si>
+  <si>
+    <t>Connection flexibility</t>
+  </si>
+  <si>
+    <t>Geopolitical barriers</t>
+  </si>
+  <si>
+    <t>Economic lifetime</t>
+  </si>
+  <si>
+    <t>Production efficiency</t>
+  </si>
+  <si>
+    <t>Waste and decomissioning</t>
+  </si>
+  <si>
     <t>System energy consumption (kWh/kg Hz)</t>
   </si>
   <si>
@@ -234,6 +285,87 @@
     <t>0.5 -1.5</t>
   </si>
   <si>
+    <t>Operating Temp Min</t>
+  </si>
+  <si>
+    <t>Operating Temp Max</t>
+  </si>
+  <si>
+    <t>Operating Pressure</t>
+  </si>
+  <si>
+    <t>Densities Min</t>
+  </si>
+  <si>
+    <t>Densities Max</t>
+  </si>
+  <si>
+    <t>Energy Consumption Min</t>
+  </si>
+  <si>
+    <t>Energy Consumption Max</t>
+  </si>
+  <si>
+    <t>Stack Cost Min</t>
+  </si>
+  <si>
+    <t>Stack Cost Max</t>
+  </si>
+  <si>
+    <t>Electrolyser System Cost with BoP Min</t>
+  </si>
+  <si>
+    <t>Electrolyser System Cost with BoP Max</t>
+  </si>
+  <si>
+    <t>Stack Lifetime Min</t>
+  </si>
+  <si>
+    <t>Stack Lifetime Max</t>
+  </si>
+  <si>
+    <t>Degradation</t>
+  </si>
+  <si>
+    <t>Hot ramp up</t>
+  </si>
+  <si>
+    <t>Cold Ramp Up</t>
+  </si>
+  <si>
+    <t>Minimum Load Min</t>
+  </si>
+  <si>
+    <t>Minimum Load Max</t>
+  </si>
+  <si>
+    <t>Efficiency (LHV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical Pressure Min </t>
+  </si>
+  <si>
+    <t>Typical Pressure Max</t>
+  </si>
+  <si>
+    <t>Cold start up</t>
+  </si>
+  <si>
+    <t>warm start up</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Price estimates for 2030</t>
+  </si>
+  <si>
+    <t>Price estimates for 2050</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
     <t>°C</t>
   </si>
   <si>
@@ -243,51 +375,12 @@
     <t>A/cm^2</t>
   </si>
   <si>
-    <t>SOEC</t>
-  </si>
-  <si>
-    <t>Operating Temp Min</t>
-  </si>
-  <si>
-    <t>Operating Temp Max</t>
-  </si>
-  <si>
-    <t>Operating Pressure</t>
-  </si>
-  <si>
-    <t>Densities Min</t>
-  </si>
-  <si>
-    <t>Densities Max</t>
-  </si>
-  <si>
-    <t>Energy Consumption Min</t>
-  </si>
-  <si>
-    <t>Energy Consumption Max</t>
-  </si>
-  <si>
-    <t>Degradation</t>
-  </si>
-  <si>
-    <t>Hot ramp up</t>
-  </si>
-  <si>
-    <t>Cold Ramp Up</t>
-  </si>
-  <si>
     <t>kWh/kg H2</t>
   </si>
   <si>
     <t>2020 $/kW</t>
   </si>
   <si>
-    <t>Stack Lifetime Min</t>
-  </si>
-  <si>
-    <t>Stack Lifetime Max</t>
-  </si>
-  <si>
     <t>Full Load Hours</t>
   </si>
   <si>
@@ -297,34 +390,16 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>Minimum Load Min</t>
-  </si>
-  <si>
-    <t>Minimum Load Max</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
-    <t>Stack Cost Min</t>
-  </si>
-  <si>
-    <t>Stack Cost Max</t>
-  </si>
-  <si>
-    <t>Electrolyser System Cost with BoP Min</t>
-  </si>
-  <si>
-    <t>Electrolyser System Cost with BoP Max</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Price estimates for 2030</t>
-  </si>
-  <si>
-    <t>Price estimates for 2050</t>
+    <t>(kWh/kg H2)</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
   <si>
     <t>m2/kW</t>
@@ -333,85 +408,10 @@
     <t>€/kW</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical Pressure Min </t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Typical Pressure Max</t>
-  </si>
-  <si>
-    <t>Cold start up</t>
-  </si>
-  <si>
-    <t>warm start up</t>
-  </si>
-  <si>
-    <t>(kWh/kg H2)</t>
-  </si>
-  <si>
-    <t>System Electricity Cosumption</t>
-  </si>
-  <si>
-    <t>Efficiency (LHV)</t>
-  </si>
-  <si>
-    <t>KWh/kg H2</t>
-  </si>
-  <si>
-    <t>System heat needed</t>
-  </si>
-  <si>
-    <t>Capex</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>Rentability</t>
-  </si>
-  <si>
-    <t>Opex</t>
-  </si>
-  <si>
-    <t>Ecological impact</t>
-  </si>
-  <si>
-    <t>Startup time</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t>Availability (h/year)</t>
-  </si>
-  <si>
-    <t>Plant Area/Footprint</t>
-  </si>
-  <si>
-    <t>Technology readiness</t>
-  </si>
-  <si>
-    <t>Connection flexibility</t>
-  </si>
-  <si>
-    <t>Geopolitical barriers</t>
-  </si>
-  <si>
-    <t>Economic lifetime</t>
-  </si>
-  <si>
-    <t>Production efficiency</t>
-  </si>
-  <si>
-    <t>Waste and decomissioning</t>
-  </si>
-  <si>
     <t>/10</t>
+  </si>
+  <si>
+    <t>System Electricity Consumption</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -502,10 +502,38 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -513,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,6 +567,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,9 +930,20 @@
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -905,88 +956,330 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12">
+        <v>10</v>
+      </c>
+      <c r="J2" s="12">
+        <v>9</v>
+      </c>
+      <c r="K2" s="12">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12">
+        <v>8</v>
+      </c>
+      <c r="M2" s="12">
+        <v>8</v>
+      </c>
+      <c r="N2" s="12">
+        <v>8</v>
+      </c>
+      <c r="O2" s="12">
+        <v>7</v>
+      </c>
+      <c r="P2" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>8</v>
+      </c>
+      <c r="R2" s="12">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="S2" s="12">
+        <v>9</v>
+      </c>
+      <c r="T2" s="12">
+        <v>8</v>
+      </c>
+      <c r="U2" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H3" s="12">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12">
         <v>8</v>
       </c>
+      <c r="J3" s="12">
+        <v>3</v>
+      </c>
+      <c r="K3" s="12">
+        <v>5</v>
+      </c>
+      <c r="L3" s="12">
+        <v>3</v>
+      </c>
+      <c r="M3" s="12">
+        <v>7</v>
+      </c>
+      <c r="N3" s="12">
+        <v>8</v>
+      </c>
+      <c r="O3" s="12">
+        <v>9</v>
+      </c>
+      <c r="P3" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12">
+        <v>5</v>
+      </c>
+      <c r="S3" s="12">
+        <v>7</v>
+      </c>
+      <c r="T3" s="12">
+        <v>8</v>
+      </c>
+      <c r="U3" s="12">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
         <v>3333</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12">
+        <v>8</v>
+      </c>
+      <c r="L5" s="12">
+        <v>7</v>
+      </c>
+      <c r="M5" s="12">
+        <v>4</v>
+      </c>
+      <c r="N5" s="12">
+        <v>7</v>
+      </c>
+      <c r="O5" s="12">
+        <v>9</v>
+      </c>
+      <c r="P5" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>4</v>
+      </c>
+      <c r="R5" s="12">
+        <v>5</v>
+      </c>
+      <c r="S5" s="12">
+        <v>6</v>
+      </c>
+      <c r="T5" s="12">
+        <v>9</v>
+      </c>
+      <c r="U5" s="12">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>0.13</v>
@@ -1001,167 +1294,162 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>42</v>
+    <row r="11" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+    <row r="12" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>59</v>
+    <row r="15" spans="1:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1170,6 +1458,11 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1179,18 +1472,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
@@ -1198,28 +1489,30 @@
     <col min="13" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" customWidth="1"/>
     <col min="16" max="16" width="7.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
     <col min="18" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.6640625" customWidth="1"/>
     <col min="21" max="21" width="10.5546875" customWidth="1"/>
     <col min="22" max="22" width="15.33203125" customWidth="1"/>
     <col min="23" max="23" width="11.5546875" customWidth="1"/>
-    <col min="24" max="24" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="26" max="26" width="9.21875" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" customWidth="1"/>
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.77734375" customWidth="1"/>
-    <col min="36" max="36" width="13.88671875" customWidth="1"/>
-    <col min="39" max="39" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.6640625" customWidth="1"/>
-    <col min="42" max="42" width="15.5546875" customWidth="1"/>
-    <col min="43" max="43" width="17.5546875" customWidth="1"/>
-    <col min="44" max="44" width="20.88671875" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" customWidth="1"/>
+    <col min="32" max="32" width="12.5546875" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" customWidth="1"/>
+    <col min="38" max="38" width="11" customWidth="1"/>
+    <col min="39" max="39" width="12.88671875" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
+    <col min="41" max="41" width="16.33203125" customWidth="1"/>
+    <col min="42" max="42" width="15" customWidth="1"/>
+    <col min="43" max="43" width="13" customWidth="1"/>
     <col min="45" max="45" width="14.33203125" customWidth="1"/>
-    <col min="46" max="46" width="14.5546875" customWidth="1"/>
+    <col min="46" max="46" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="8" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1227,25 +1520,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>89</v>
@@ -1260,249 +1553,249 @@
         <v>92</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="AD1" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>108</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="AO1" s="7" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="AQ1" s="7" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="AT1" s="7" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN2" s="6">
         <v>10</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1590,59 +1883,59 @@
       <c r="AC3" s="5">
         <v>580</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="9">
         <v>150</v>
       </c>
-      <c r="AE3" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="9">
-        <v>0</v>
+      <c r="AE3" s="9">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="12">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="12">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="12">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="12">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AT3" s="12">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1728,57 +2021,57 @@
         <v>50</v>
       </c>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="9">
-        <v>0</v>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="12">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AS4" s="12">
+        <v>8</v>
+      </c>
+      <c r="AT4" s="12">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1866,61 +2159,61 @@
       <c r="AC5" s="5">
         <v>760</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="9">
         <v>150</v>
       </c>
-      <c r="AE5" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>0</v>
+      <c r="AE5" s="9">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>500</v>
@@ -2006,56 +2299,56 @@
       <c r="AC6" s="5">
         <v>1000</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="9">
         <v>250</v>
       </c>
-      <c r="AE6" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>0</v>
+      <c r="AE6" s="9">
+        <v>81</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>8</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="12">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="12">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2064,15 +2357,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -2250,6 +2534,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2261,14 +2554,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2286,18 +2571,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Electrolyser data.xlsx
+++ b/Electrolyser data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47003B0E-B81A-40B3-AC7B-F33CB40F0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A32BE2F-8E0B-466D-A302-C1E3FEF1EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3552" windowWidth="17112" windowHeight="8796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3275" yWindow="-9450" windowWidth="16945" windowHeight="8710" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,6 +339,9 @@
     <t>Minimum Load Max</t>
   </si>
   <si>
+    <t>System Electricity Consumption</t>
+  </si>
+  <si>
     <t>Efficiency (LHV)</t>
   </si>
   <si>
@@ -409,9 +412,6 @@
   </si>
   <si>
     <t>/10</t>
-  </si>
-  <si>
-    <t>System Electricity Consumption</t>
   </si>
 </sst>
 </file>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:U5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,6 +1450,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -1458,11 +1463,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1472,7 +1472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03B1312-1625-4FD3-BECF-56DDACB845AB}">
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AT12" sqref="AT12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1574,10 +1576,10 @@
         <v>99</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>82</v>
@@ -1586,28 +1588,28 @@
         <v>83</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF1" s="7" t="s">
         <v>6</v>
@@ -1660,139 +1662,139 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="W2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="AF2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN2" s="6">
         <v>10</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -1893,10 +1895,10 @@
         <v>10</v>
       </c>
       <c r="AG3" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="12">
         <v>9</v>
@@ -1911,16 +1913,16 @@
         <v>8</v>
       </c>
       <c r="AM3" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN3" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="12">
         <v>8</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AP3" s="12">
         <v>7</v>
-      </c>
-      <c r="AO3" s="12">
-        <v>9</v>
-      </c>
-      <c r="AP3" s="12">
-        <v>8</v>
       </c>
       <c r="AQ3" s="12">
         <v>5</v>
@@ -1929,10 +1931,10 @@
         <v>9</v>
       </c>
       <c r="AS3" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT3" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -2029,10 +2031,10 @@
         <v>7</v>
       </c>
       <c r="AG4" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH4" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" s="12">
         <v>3</v>
@@ -2047,16 +2049,16 @@
         <v>7</v>
       </c>
       <c r="AM4" s="12">
+        <v>6</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AP4" s="12">
         <v>8</v>
-      </c>
-      <c r="AN4" s="12">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="12">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>9</v>
       </c>
       <c r="AQ4" s="12">
         <v>5</v>
@@ -2065,10 +2067,10 @@
         <v>7</v>
       </c>
       <c r="AS4" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT4" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -2169,10 +2171,10 @@
         <v>3</v>
       </c>
       <c r="AG5" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH5" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="2">
         <v>7</v>
@@ -2187,16 +2189,16 @@
         <v>5</v>
       </c>
       <c r="AM5" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ5" s="2">
         <v>5</v>
@@ -2205,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
@@ -2309,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="AG6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="12">
         <v>4</v>
@@ -2327,16 +2329,16 @@
         <v>4</v>
       </c>
       <c r="AM6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="12">
         <v>7</v>
       </c>
-      <c r="AN6" s="12">
-        <v>9</v>
-      </c>
       <c r="AO6" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="12">
         <v>5</v>
@@ -2345,10 +2347,10 @@
         <v>6</v>
       </c>
       <c r="AS6" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT6" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2357,6 +2359,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -2534,15 +2545,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2554,6 +2556,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04138F4-C2EC-45BF-818E-E97EF4C3AE40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2571,20 +2581,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B776E9-5BDE-42CD-8357-70C76205F0A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C747844-6093-4F1A-B800-1A4131821663}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>